--- a/airport_info.xlsx
+++ b/airport_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Desktop\EDU\Thesis\Projects\simple_airport\airport_network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7356FDAC-0D48-4CA8-9AF5-CDDB700B110A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E946084-575C-4A6C-9F63-710D3737CCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
